--- a/biology/Histoire de la zoologie et de la botanique/Ernst_Rudolf_von_Trautvetter/Ernst_Rudolf_von_Trautvetter.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ernst_Rudolf_von_Trautvetter/Ernst_Rudolf_von_Trautvetter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernst Rudolf von Trautvetter, né le 8 février 1809 à Mittau en gouvernement de Courlande et mort le 12 janvier 1889 à Saint-Pétersbourg est un botaniste allemand de la Baltique, sujet de l'Empire russe.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à l'université allemande de Dorpat en 1825, d'abord à la faculté de médecine, puis à celle de physique et mathématiques. Il est élève en botanique du professeur von Ledebour. Il obtient une médaille d'or en botanique en 1829 et passe sa thèse en 1833. Il obtient un doctorat de philosophie de l'université de Königsberg en 1835.
 Trautvetter est nommé adjoint du directeur du jardin botanique de Dorpat en 1834. Après sa thèse, il est nommé docent de l'université de Dorpat en botanique. Il devient en 1835, conservateur-adjoint du directeur du jardin botanique impérial de Saint-Pétersbourg, le professeur Friedrich Ernst Ludwig von Fischer.
@@ -548,7 +562,9 @@
           <t>Espèces étudiées par Trautvetter</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Acelidanthus Trautv. &amp; C.A.Mey. in Middend.
 Microselinum Andrz. ex Trautv.
